--- a/src/main/java/com/intershop/saig/testdata/TestData.xlsx
+++ b/src/main/java/com/intershop/saig/testdata/TestData.xlsx
@@ -3,9 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{9218FD06-D417-4750-A70D-F32EE0A914C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Intershop\Desktop\Interview-Automaion-Tests\src\main\java\com\intershop\saig\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E84F22F-9BF4-4713-B742-9141BF986C77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17328" windowHeight="13224" activeTab="1" xr2:uid="{74C82D57-0D97-4B3F-AF36-06D6227847F0}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{74C82D57-0D97-4B3F-AF36-06D6227847F0}"/>
   </bookViews>
   <sheets>
     <sheet name="config" sheetId="2" r:id="rId1"/>
@@ -13,7 +18,6 @@
     <sheet name="login" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:P24"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
   <si>
     <t>email</t>
   </si>
@@ -77,9 +81,6 @@
   </si>
   <si>
     <t>eMail</t>
-  </si>
-  <si>
-    <t>r.narayan@intershop.com</t>
   </si>
   <si>
     <t>intershop123</t>
@@ -521,7 +522,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{071BB583-74B3-41D5-961A-E8ACF13B3510}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -566,7 +567,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L1" t="s">
         <v>10</v>
@@ -577,40 +578,40 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
         <v>22</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>23</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>25</v>
       </c>
       <c r="J2">
         <v>3000</v>
       </c>
       <c r="K2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
         <v>26</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -753,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8361DF37-6FEE-4AD6-B9B1-A0890BAA4A5D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -768,17 +769,9 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
+      <c r="A2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{DE00A73D-F7FF-4D1C-B68C-AC9068AB11ED}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>